--- a/Tweets/De 20210215-20210221/CuentasOficiales_02_21.xlsx
+++ b/Tweets/De 20210215-20210221/CuentasOficiales_02_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monts\OneDrive\Escritorio\TFM\Tweets\De 20210215-20210221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B837E04F-CA93-484D-8D34-34120556297A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555D484E-01F9-4004-BA5A-AD98FA94B2D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5FE88DA-9527-430C-8F86-C4238B0D1124}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82464BB0-A132-48B7-8F1E-DE5C7E80EFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A5A1F7A2-9059-4DE6-9D9F-207FA09A7413}" name="CuentasOficiales_02_21" type="4" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{81F2E0C5-4467-4AC2-922F-295BCA6DA043}" name="CuentasOficiales_02_21" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\monts\OneDrive\Escritorio\TFM\Tweets\De 20210215-20210221\CuentasOficiales_02_21.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -12579,25 +12579,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D882BB-F40C-40E1-8E36-A21F3BCBF2BE}" name="Tabla1" displayName="Tabla1" ref="A1:F1699" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1699" xr:uid="{64D9457A-238B-413B-B950-95A89A843C08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ED1BB5E-E6FD-4D8F-9C42-2DB0EBF7CEB6}" name="Tabla1" displayName="Tabla1" ref="A1:F1699" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1699" xr:uid="{E2FE6C86-C7DF-490F-904D-FCD1BADCF1EB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E75304B8-1555-4466-946E-5D7813881F1B}" uniqueName="user_id" name="user_id">
+    <tableColumn id="1" xr3:uid="{F06ABD26-7BE6-4C34-A8A7-E185110C4593}" uniqueName="user_id" name="user_id">
       <xmlColumnPr mapId="1" xpath="/document/row/user_id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{53D44ABE-B34F-49DB-BAE0-57A120225D16}" uniqueName="status_id" name="status_id">
+    <tableColumn id="2" xr3:uid="{B7612B86-7ED8-4BD2-A98C-A4B9ACC2E36D}" uniqueName="status_id" name="status_id">
       <xmlColumnPr mapId="1" xpath="/document/row/status_id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C1A5B106-98AD-4820-A486-27000E5B0D3F}" uniqueName="created_at" name="created_at">
+    <tableColumn id="3" xr3:uid="{7349AACD-BA2B-4D6C-90B6-33A34C0FCD4D}" uniqueName="created_at" name="created_at">
       <xmlColumnPr mapId="1" xpath="/document/row/created_at" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A11A5F5D-7116-4A9B-B0CD-CFDC9123A044}" uniqueName="screen_name" name="screen_name">
+    <tableColumn id="4" xr3:uid="{011FCAD7-E5EF-4946-BB08-A7D8A870349E}" uniqueName="screen_name" name="screen_name">
       <xmlColumnPr mapId="1" xpath="/document/row/screen_name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BA60D64-F4DE-4946-A7AB-3B93DB66D3F9}" uniqueName="text" name="text">
+    <tableColumn id="5" xr3:uid="{49C081E0-2D02-42EF-B0BC-96037118AAD3}" uniqueName="text" name="text">
       <xmlColumnPr mapId="1" xpath="/document/row/text" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5BC8C60D-5691-42DC-A223-5AC07E35ED97}" uniqueName="retweet_count" name="retweet_count">
+    <tableColumn id="6" xr3:uid="{FD181DE7-3B23-4EA9-B795-C97566C4009B}" uniqueName="retweet_count" name="retweet_count">
       <xmlColumnPr mapId="1" xpath="/document/row/retweet_count" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -12904,8 +12904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1698" workbookViewId="0">
-      <selection activeCell="C1699" sqref="C1699"/>
+    <sheetView tabSelected="1" topLeftCell="A1699" workbookViewId="0">
+      <selection activeCell="D1699" sqref="D1699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12954,7 +12954,7 @@
         <v>1698</v>
       </c>
       <c r="F2">
-        <v>2401</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -12974,7 +12974,7 @@
         <v>1698</v>
       </c>
       <c r="F3">
-        <v>2401</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -12994,7 +12994,7 @@
         <v>1699</v>
       </c>
       <c r="F4">
-        <v>2985</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13014,7 +13014,7 @@
         <v>1700</v>
       </c>
       <c r="F5">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
@@ -13034,7 +13034,7 @@
         <v>1701</v>
       </c>
       <c r="F6">
-        <v>3876</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13054,7 +13054,7 @@
         <v>1702</v>
       </c>
       <c r="F7">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
@@ -13074,7 +13074,7 @@
         <v>1703</v>
       </c>
       <c r="F8">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -13114,7 +13114,7 @@
         <v>1705</v>
       </c>
       <c r="F10">
-        <v>1971</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -13174,7 +13174,7 @@
         <v>1708</v>
       </c>
       <c r="F13">
-        <v>4169</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -13234,7 +13234,7 @@
         <v>1711</v>
       </c>
       <c r="F16">
-        <v>2114</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13254,7 +13254,7 @@
         <v>1712</v>
       </c>
       <c r="F17">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13374,7 +13374,7 @@
         <v>1701</v>
       </c>
       <c r="F23">
-        <v>3876</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -13394,7 +13394,7 @@
         <v>1716</v>
       </c>
       <c r="F24">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -13594,7 +13594,7 @@
         <v>1726</v>
       </c>
       <c r="F34">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -13614,7 +13614,7 @@
         <v>1727</v>
       </c>
       <c r="F35">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13634,7 +13634,7 @@
         <v>1728</v>
       </c>
       <c r="F36">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -13654,7 +13654,7 @@
         <v>1729</v>
       </c>
       <c r="F37">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -13674,7 +13674,7 @@
         <v>1730</v>
       </c>
       <c r="F38">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13694,7 +13694,7 @@
         <v>1731</v>
       </c>
       <c r="F39">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13714,7 +13714,7 @@
         <v>1732</v>
       </c>
       <c r="F40">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -13734,7 +13734,7 @@
         <v>1733</v>
       </c>
       <c r="F41">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -13754,7 +13754,7 @@
         <v>1734</v>
       </c>
       <c r="F42">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -13774,7 +13774,7 @@
         <v>1735</v>
       </c>
       <c r="F43">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13794,7 +13794,7 @@
         <v>1726</v>
       </c>
       <c r="F44">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -13814,7 +13814,7 @@
         <v>1736</v>
       </c>
       <c r="F45">
-        <v>3151</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -13894,7 +13894,7 @@
         <v>1740</v>
       </c>
       <c r="F49">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -14234,7 +14234,7 @@
         <v>1756</v>
       </c>
       <c r="F66">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
@@ -14254,7 +14254,7 @@
         <v>1757</v>
       </c>
       <c r="F67">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -14334,7 +14334,7 @@
         <v>1761</v>
       </c>
       <c r="F71">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="288" x14ac:dyDescent="0.3">
@@ -14574,7 +14574,7 @@
         <v>1771</v>
       </c>
       <c r="F83">
-        <v>8580</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -14594,7 +14594,7 @@
         <v>1772</v>
       </c>
       <c r="F84">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -14614,7 +14614,7 @@
         <v>1756</v>
       </c>
       <c r="F85">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,7 +14654,7 @@
         <v>1774</v>
       </c>
       <c r="F87">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -14694,7 +14694,7 @@
         <v>1776</v>
       </c>
       <c r="F89">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -14734,7 +14734,7 @@
         <v>1757</v>
       </c>
       <c r="F91">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -14774,7 +14774,7 @@
         <v>1779</v>
       </c>
       <c r="F93">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -14854,7 +14854,7 @@
         <v>1783</v>
       </c>
       <c r="F97">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -15074,7 +15074,7 @@
         <v>1793</v>
       </c>
       <c r="F108">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="360" x14ac:dyDescent="0.3">
@@ -15534,7 +15534,7 @@
         <v>1816</v>
       </c>
       <c r="F131">
-        <v>5342</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
@@ -15794,7 +15794,7 @@
         <v>1827</v>
       </c>
       <c r="F144">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
@@ -16134,7 +16134,7 @@
         <v>1841</v>
       </c>
       <c r="F161">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
@@ -16254,7 +16254,7 @@
         <v>1847</v>
       </c>
       <c r="F167">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -16314,7 +16314,7 @@
         <v>1850</v>
       </c>
       <c r="F170">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -16334,7 +16334,7 @@
         <v>1851</v>
       </c>
       <c r="F171">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -16394,7 +16394,7 @@
         <v>1854</v>
       </c>
       <c r="F174">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
@@ -16414,7 +16414,7 @@
         <v>1855</v>
       </c>
       <c r="F175">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -16434,7 +16434,7 @@
         <v>1856</v>
       </c>
       <c r="F176">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -16474,7 +16474,7 @@
         <v>1858</v>
       </c>
       <c r="F178">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -16754,7 +16754,7 @@
         <v>1872</v>
       </c>
       <c r="F192">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
@@ -16974,7 +16974,7 @@
         <v>1883</v>
       </c>
       <c r="F203">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
@@ -17554,7 +17554,7 @@
         <v>1912</v>
       </c>
       <c r="F232">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -18354,7 +18354,7 @@
         <v>1952</v>
       </c>
       <c r="F272">
-        <v>5512</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -18474,7 +18474,7 @@
         <v>1958</v>
       </c>
       <c r="F278">
-        <v>6832</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
@@ -19754,7 +19754,7 @@
         <v>2022</v>
       </c>
       <c r="F342">
-        <v>1158</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -19774,7 +19774,7 @@
         <v>2023</v>
       </c>
       <c r="F343">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -19794,7 +19794,7 @@
         <v>2024</v>
       </c>
       <c r="F344">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -19814,7 +19814,7 @@
         <v>2025</v>
       </c>
       <c r="F345">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -19854,7 +19854,7 @@
         <v>2027</v>
       </c>
       <c r="F347">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -19914,7 +19914,7 @@
         <v>2030</v>
       </c>
       <c r="F350">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -19954,7 +19954,7 @@
         <v>2032</v>
       </c>
       <c r="F352">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -19994,7 +19994,7 @@
         <v>2034</v>
       </c>
       <c r="F354">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -20054,7 +20054,7 @@
         <v>2037</v>
       </c>
       <c r="F357">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -20114,7 +20114,7 @@
         <v>2040</v>
       </c>
       <c r="F360">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -20174,7 +20174,7 @@
         <v>2043</v>
       </c>
       <c r="F363">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -20254,7 +20254,7 @@
         <v>2047</v>
       </c>
       <c r="F367">
-        <v>1786</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -20374,7 +20374,7 @@
         <v>2053</v>
       </c>
       <c r="F373">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -20534,7 +20534,7 @@
         <v>2061</v>
       </c>
       <c r="F381">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -20634,7 +20634,7 @@
         <v>2066</v>
       </c>
       <c r="F386">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -20954,7 +20954,7 @@
         <v>2082</v>
       </c>
       <c r="F402">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -22534,7 +22534,7 @@
         <v>2161</v>
       </c>
       <c r="F481">
-        <v>8124</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -23394,7 +23394,7 @@
         <v>2204</v>
       </c>
       <c r="F524">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -23414,7 +23414,7 @@
         <v>2205</v>
       </c>
       <c r="F525">
-        <v>6585</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -24394,7 +24394,7 @@
         <v>2254</v>
       </c>
       <c r="F574">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -25854,7 +25854,7 @@
         <v>2327</v>
       </c>
       <c r="F647">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="648" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -25874,7 +25874,7 @@
         <v>2328</v>
       </c>
       <c r="F648">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -25974,7 +25974,7 @@
         <v>2333</v>
       </c>
       <c r="F653">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="654" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -26174,7 +26174,7 @@
         <v>2343</v>
       </c>
       <c r="F663">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="664" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -26294,7 +26294,7 @@
         <v>2349</v>
       </c>
       <c r="F669">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="670" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -26374,7 +26374,7 @@
         <v>2353</v>
       </c>
       <c r="F673">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="674" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -26514,7 +26514,7 @@
         <v>2360</v>
       </c>
       <c r="F680">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.3">
@@ -27154,7 +27154,7 @@
         <v>2392</v>
       </c>
       <c r="F712">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -27614,7 +27614,7 @@
         <v>2415</v>
       </c>
       <c r="F735">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -28474,7 +28474,7 @@
         <v>2458</v>
       </c>
       <c r="F778">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -28954,7 +28954,7 @@
         <v>2482</v>
       </c>
       <c r="F802">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -29634,7 +29634,7 @@
         <v>2516</v>
       </c>
       <c r="F836">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="837" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -30754,7 +30754,7 @@
         <v>2572</v>
       </c>
       <c r="F892">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
@@ -30774,7 +30774,7 @@
         <v>2573</v>
       </c>
       <c r="F893">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="894" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -30814,7 +30814,7 @@
         <v>2575</v>
       </c>
       <c r="F895">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.3">
@@ -30834,7 +30834,7 @@
         <v>2576</v>
       </c>
       <c r="F896">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="897" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -30854,7 +30854,7 @@
         <v>2577</v>
       </c>
       <c r="F897">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -30874,7 +30874,7 @@
         <v>2575</v>
       </c>
       <c r="F898">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
@@ -30914,7 +30914,7 @@
         <v>2579</v>
       </c>
       <c r="F900">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.3">
@@ -30934,7 +30934,7 @@
         <v>2580</v>
       </c>
       <c r="F901">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="902" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -31014,7 +31014,7 @@
         <v>2584</v>
       </c>
       <c r="F905">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -31134,7 +31134,7 @@
         <v>2589</v>
       </c>
       <c r="F911">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.3">
@@ -31274,7 +31274,7 @@
         <v>2596</v>
       </c>
       <c r="F918">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
@@ -31294,7 +31294,7 @@
         <v>2597</v>
       </c>
       <c r="F919">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -31554,7 +31554,7 @@
         <v>2609</v>
       </c>
       <c r="F932">
-        <v>2386</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
@@ -31574,7 +31574,7 @@
         <v>2610</v>
       </c>
       <c r="F933">
-        <v>7800</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -31794,7 +31794,7 @@
         <v>2620</v>
       </c>
       <c r="F944">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -32094,7 +32094,7 @@
         <v>2633</v>
       </c>
       <c r="F959">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -32454,7 +32454,7 @@
         <v>2651</v>
       </c>
       <c r="F977">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
@@ -33074,7 +33074,7 @@
         <v>2681</v>
       </c>
       <c r="F1008">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
@@ -33114,7 +33114,7 @@
         <v>2683</v>
       </c>
       <c r="F1010">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
@@ -33174,7 +33174,7 @@
         <v>2686</v>
       </c>
       <c r="F1013">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="1014" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -33694,7 +33694,7 @@
         <v>2711</v>
       </c>
       <c r="F1039">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.3">
@@ -33734,7 +33734,7 @@
         <v>2713</v>
       </c>
       <c r="F1041">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
@@ -33774,7 +33774,7 @@
         <v>2715</v>
       </c>
       <c r="F1043">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1044" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
@@ -40574,7 +40574,7 @@
         <v>3055</v>
       </c>
       <c r="F1383">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1384" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -40594,7 +40594,7 @@
         <v>3056</v>
       </c>
       <c r="F1384">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.3">
@@ -40654,7 +40654,7 @@
         <v>3059</v>
       </c>
       <c r="F1387">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1388" spans="1:6" x14ac:dyDescent="0.3">
@@ -40674,7 +40674,7 @@
         <v>3060</v>
       </c>
       <c r="F1388">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1389" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
@@ -40754,7 +40754,7 @@
         <v>3064</v>
       </c>
       <c r="F1392">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1393" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -40874,7 +40874,7 @@
         <v>3070</v>
       </c>
       <c r="F1398">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
@@ -41094,7 +41094,7 @@
         <v>3081</v>
       </c>
       <c r="F1409">
-        <v>2821</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1410" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -41334,7 +41334,7 @@
         <v>3093</v>
       </c>
       <c r="F1421">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1422" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -43294,7 +43294,7 @@
         <v>3191</v>
       </c>
       <c r="F1519">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1520" spans="1:6" x14ac:dyDescent="0.3">
@@ -43314,7 +43314,7 @@
         <v>3192</v>
       </c>
       <c r="F1520">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1521" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
@@ -43334,7 +43334,7 @@
         <v>3193</v>
       </c>
       <c r="F1521">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1522" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -43474,7 +43474,7 @@
         <v>3200</v>
       </c>
       <c r="F1528">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1529" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -43494,7 +43494,7 @@
         <v>3201</v>
       </c>
       <c r="F1529">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1530" spans="1:6" x14ac:dyDescent="0.3">
@@ -45394,7 +45394,7 @@
         <v>3296</v>
       </c>
       <c r="F1624">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1625" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
@@ -46174,7 +46174,7 @@
         <v>3335</v>
       </c>
       <c r="F1663">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1664" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
